--- a/artfynd/A 7208-2023.xlsx
+++ b/artfynd/A 7208-2023.xlsx
@@ -3055,10 +3055,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>104490169</v>
+        <v>104481264</v>
       </c>
       <c r="B23" t="n">
-        <v>90319</v>
+        <v>85077</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3071,26 +3071,26 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4769</v>
+        <v>3762</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Olivspindling</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Cortinarius venetus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Fr.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -3104,10 +3104,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>669088.8594992356</v>
+        <v>668719.4915250128</v>
       </c>
       <c r="R23" t="n">
-        <v>6707104.538948067</v>
+        <v>6707110.999191185</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3134,7 +3134,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2022-10-05</t>
+          <t>2022-09-29</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
@@ -3144,7 +3144,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2022-10-05</t>
+          <t>2022-09-29</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
@@ -3176,10 +3176,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>104481264</v>
+        <v>108415232</v>
       </c>
       <c r="B24" t="n">
-        <v>85077</v>
+        <v>98520</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3192,43 +3192,34 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>3762</v>
+        <v>222498</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Olivspindling</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Cortinarius venetus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Fr.</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Slåtaren, Upl</t>
+          <t>..., Upl</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>668719.4915250128</v>
+        <v>668590.6649670057</v>
       </c>
       <c r="R24" t="n">
-        <v>6707110.999191185</v>
+        <v>6706860.496918534</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3255,7 +3246,7 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2022-09-29</t>
+          <t>2023-04-23</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
@@ -3265,7 +3256,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2022-09-29</t>
+          <t>2023-04-23</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
@@ -3285,22 +3276,22 @@
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Patrick Fritzson</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Patrick Fritzson</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>104490222</v>
+        <v>108409878</v>
       </c>
       <c r="B25" t="n">
-        <v>85177</v>
+        <v>98520</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3309,50 +3300,41 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>445</v>
+        <v>222498</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Kopparspindling</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Cortinarius cupreorufus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Brandrud</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Slåtaren, Upl</t>
+          <t>Skaten, Upl</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>668961.2052849672</v>
+        <v>668732.2419844726</v>
       </c>
       <c r="R25" t="n">
-        <v>6707231.929817245</v>
+        <v>6706986.137389799</v>
       </c>
       <c r="S25" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3376,7 +3358,7 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2022-10-05</t>
+          <t>2023-04-23</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
@@ -3386,7 +3368,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2022-10-05</t>
+          <t>2023-04-23</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
@@ -3406,22 +3388,22 @@
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Patrick Fritzson</t>
+          <t>Isac Carlsson</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Patrick Fritzson</t>
+          <t>Isac Carlsson</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>104490140</v>
+        <v>108409882</v>
       </c>
       <c r="B26" t="n">
-        <v>85077</v>
+        <v>98520</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3434,46 +3416,37 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>3762</v>
+        <v>222498</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Olivspindling</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Cortinarius venetus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Fr.</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Slåtaren, Upl</t>
+          <t>Skaten, Upl</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>669111.1003404789</v>
+        <v>668573.466799319</v>
       </c>
       <c r="R26" t="n">
-        <v>6707083.846091949</v>
+        <v>6706826.106911643</v>
       </c>
       <c r="S26" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3497,7 +3470,7 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2022-10-05</t>
+          <t>2023-04-23</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
@@ -3507,7 +3480,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2022-10-05</t>
+          <t>2023-04-23</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
@@ -3527,19 +3500,19 @@
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Patrick Fritzson</t>
+          <t>Isac Carlsson</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Patrick Fritzson</t>
+          <t>Isac Carlsson</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>108415223</v>
+        <v>108409886</v>
       </c>
       <c r="B27" t="n">
         <v>98520</v>
@@ -3575,17 +3548,17 @@
       <c r="I27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>..., Upl</t>
+          <t>Skaten, Upl</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>669155.8938691856</v>
+        <v>668662.3892558606</v>
       </c>
       <c r="R27" t="n">
-        <v>6706771.296968295</v>
+        <v>6706797.156796834</v>
       </c>
       <c r="S27" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3639,19 +3612,19 @@
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Isac Carlsson</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Isac Carlsson</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>108415232</v>
+        <v>108409880</v>
       </c>
       <c r="B28" t="n">
         <v>98520</v>
@@ -3687,17 +3660,17 @@
       <c r="I28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>..., Upl</t>
+          <t>Skaten, Upl</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>668590.6649670057</v>
+        <v>668701.2030766071</v>
       </c>
       <c r="R28" t="n">
-        <v>6706860.496918534</v>
+        <v>6706887.877786493</v>
       </c>
       <c r="S28" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3751,19 +3724,19 @@
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Isac Carlsson</t>
         </is>
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Isac Carlsson</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>108409878</v>
+        <v>108415228</v>
       </c>
       <c r="B29" t="n">
         <v>98520</v>
@@ -3799,17 +3772,17 @@
       <c r="I29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Skaten, Upl</t>
+          <t>..., Upl</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>668732.2419844726</v>
+        <v>668809.8771232736</v>
       </c>
       <c r="R29" t="n">
-        <v>6706986.137389799</v>
+        <v>6707092.990044762</v>
       </c>
       <c r="S29" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -3863,19 +3836,19 @@
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
         <is>
-          <t>Isac Carlsson</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>Isac Carlsson</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>108409875</v>
+        <v>108415227</v>
       </c>
       <c r="B30" t="n">
         <v>98520</v>
@@ -3911,17 +3884,17 @@
       <c r="I30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Skaten, Upl</t>
+          <t>..., Upl</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>668896.3217661468</v>
+        <v>668805.5245496323</v>
       </c>
       <c r="R30" t="n">
-        <v>6707222.972649102</v>
+        <v>6707112.049691288</v>
       </c>
       <c r="S30" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -3975,22 +3948,22 @@
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Isac Carlsson</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Isac Carlsson</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>108409870</v>
+        <v>108409826</v>
       </c>
       <c r="B31" t="n">
-        <v>98520</v>
+        <v>90676</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3999,38 +3972,41 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>222498</v>
+        <v>5966</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
           <t>Skaten, Upl</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>669294.3444126673</v>
+        <v>668867.2956288499</v>
       </c>
       <c r="R31" t="n">
-        <v>6706625.134030623</v>
+        <v>6707155.927813337</v>
       </c>
       <c r="S31" t="n">
         <v>15</v>
@@ -4075,12 +4051,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>Gammal fruktkropp</t>
+        </is>
+      </c>
       <c r="AD31" t="b">
         <v>0</v>
       </c>
       <c r="AE31" t="b">
         <v>0</v>
       </c>
+      <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="b">
         <v>0</v>
       </c>
@@ -4099,7 +4081,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>108409882</v>
+        <v>108415230</v>
       </c>
       <c r="B32" t="n">
         <v>98520</v>
@@ -4135,17 +4117,17 @@
       <c r="I32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Skaten, Upl</t>
+          <t>..., Upl</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>668573.466799319</v>
+        <v>668668.8559736249</v>
       </c>
       <c r="R32" t="n">
-        <v>6706826.106911643</v>
+        <v>6707019.238064316</v>
       </c>
       <c r="S32" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -4199,19 +4181,19 @@
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Isac Carlsson</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Isac Carlsson</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>108415220</v>
+        <v>108415229</v>
       </c>
       <c r="B33" t="n">
         <v>98520</v>
@@ -4251,10 +4233,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>669171.7761687116</v>
+        <v>668743.8304771839</v>
       </c>
       <c r="R33" t="n">
-        <v>6706685.594325458</v>
+        <v>6707098.304903514</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4323,7 +4305,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>108409886</v>
+        <v>108415225</v>
       </c>
       <c r="B34" t="n">
         <v>98520</v>
@@ -4359,17 +4341,17 @@
       <c r="I34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Skaten, Upl</t>
+          <t>..., Upl</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>668662.3892558606</v>
+        <v>668895.4058025962</v>
       </c>
       <c r="R34" t="n">
-        <v>6706797.156796834</v>
+        <v>6707200.21030054</v>
       </c>
       <c r="S34" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -4423,19 +4405,19 @@
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Isac Carlsson</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Isac Carlsson</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>108409880</v>
+        <v>108415234</v>
       </c>
       <c r="B35" t="n">
         <v>98520</v>
@@ -4471,17 +4453,17 @@
       <c r="I35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Skaten, Upl</t>
+          <t>..., Upl</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>668701.2030766071</v>
+        <v>668734.7067607481</v>
       </c>
       <c r="R35" t="n">
-        <v>6706887.877786493</v>
+        <v>6706848.442735896</v>
       </c>
       <c r="S35" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -4535,22 +4517,22 @@
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Isac Carlsson</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Isac Carlsson</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>108409807</v>
+        <v>108409884</v>
       </c>
       <c r="B36" t="n">
-        <v>56540</v>
+        <v>98520</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4559,25 +4541,25 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>103021</v>
+        <v>222498</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4587,10 +4569,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>669084.0876556924</v>
+        <v>668624.43209976</v>
       </c>
       <c r="R36" t="n">
-        <v>6707005.530315585</v>
+        <v>6706804.772460494</v>
       </c>
       <c r="S36" t="n">
         <v>15</v>
@@ -4659,7 +4641,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>108409868</v>
+        <v>108409883</v>
       </c>
       <c r="B37" t="n">
         <v>98520</v>
@@ -4699,10 +4681,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>669113.653610889</v>
+        <v>668592.5375779402</v>
       </c>
       <c r="R37" t="n">
-        <v>6706627.056839946</v>
+        <v>6706788.467230922</v>
       </c>
       <c r="S37" t="n">
         <v>15</v>
@@ -4771,7 +4753,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>108415219</v>
+        <v>108409877</v>
       </c>
       <c r="B38" t="n">
         <v>98520</v>
@@ -4807,17 +4789,17 @@
       <c r="I38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>..., Upl</t>
+          <t>Skaten, Upl</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>669192.0450890273</v>
+        <v>668740.3032878102</v>
       </c>
       <c r="R38" t="n">
-        <v>6706664.807048702</v>
+        <v>6707142.098699843</v>
       </c>
       <c r="S38" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -4871,19 +4853,19 @@
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Isac Carlsson</t>
         </is>
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Isac Carlsson</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>108415228</v>
+        <v>108409879</v>
       </c>
       <c r="B39" t="n">
         <v>98520</v>
@@ -4919,17 +4901,17 @@
       <c r="I39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>..., Upl</t>
+          <t>Skaten, Upl</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>668809.8771232736</v>
+        <v>668730.8662629569</v>
       </c>
       <c r="R39" t="n">
-        <v>6707092.990044762</v>
+        <v>6706951.991754219</v>
       </c>
       <c r="S39" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -4983,19 +4965,19 @@
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Isac Carlsson</t>
         </is>
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Isac Carlsson</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>108415227</v>
+        <v>108409885</v>
       </c>
       <c r="B40" t="n">
         <v>98520</v>
@@ -5031,17 +5013,17 @@
       <c r="I40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
-          <t>..., Upl</t>
+          <t>Skaten, Upl</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>668805.5245496323</v>
+        <v>668657.0282945582</v>
       </c>
       <c r="R40" t="n">
-        <v>6707112.049691288</v>
+        <v>6706774.184786156</v>
       </c>
       <c r="S40" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
@@ -5095,22 +5077,22 @@
       <c r="AT40" t="inlineStr"/>
       <c r="AW40" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Isac Carlsson</t>
         </is>
       </c>
       <c r="AX40" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Isac Carlsson</t>
         </is>
       </c>
       <c r="AY40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>108409806</v>
+        <v>108415224</v>
       </c>
       <c r="B41" t="n">
-        <v>56540</v>
+        <v>98520</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5119,41 +5101,41 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>103021</v>
+        <v>222498</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Skaten, Upl</t>
+          <t>..., Upl</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>669083.0542504245</v>
+        <v>668978.7494433899</v>
       </c>
       <c r="R41" t="n">
-        <v>6707006.469879689</v>
+        <v>6707121.125797677</v>
       </c>
       <c r="S41" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
@@ -5207,22 +5189,22 @@
       <c r="AT41" t="inlineStr"/>
       <c r="AW41" t="inlineStr">
         <is>
-          <t>Isac Carlsson</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX41" t="inlineStr">
         <is>
-          <t>Isac Carlsson</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>108409826</v>
+        <v>108409822</v>
       </c>
       <c r="B42" t="n">
-        <v>90676</v>
+        <v>95519</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5231,41 +5213,38 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>5966</v>
+        <v>221945</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
           <t>Skaten, Upl</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>668867.2956288499</v>
+        <v>669001.8055462213</v>
       </c>
       <c r="R42" t="n">
-        <v>6707155.927813337</v>
+        <v>6707093.55563919</v>
       </c>
       <c r="S42" t="n">
         <v>15</v>
@@ -5310,18 +5289,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC42" t="inlineStr">
-        <is>
-          <t>Gammal fruktkropp</t>
-        </is>
-      </c>
       <c r="AD42" t="b">
         <v>0</v>
       </c>
       <c r="AE42" t="b">
         <v>0</v>
       </c>
-      <c r="AF42" t="inlineStr"/>
       <c r="AG42" t="b">
         <v>0</v>
       </c>
@@ -5340,7 +5313,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>108415230</v>
+        <v>108409876</v>
       </c>
       <c r="B43" t="n">
         <v>98520</v>
@@ -5376,17 +5349,17 @@
       <c r="I43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>..., Upl</t>
+          <t>Skaten, Upl</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>668668.8559736249</v>
+        <v>668806.037766132</v>
       </c>
       <c r="R43" t="n">
-        <v>6707019.238064316</v>
+        <v>6707154.056261476</v>
       </c>
       <c r="S43" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
@@ -5440,19 +5413,19 @@
       <c r="AT43" t="inlineStr"/>
       <c r="AW43" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Isac Carlsson</t>
         </is>
       </c>
       <c r="AX43" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Isac Carlsson</t>
         </is>
       </c>
       <c r="AY43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>108415229</v>
+        <v>108415235</v>
       </c>
       <c r="B44" t="n">
         <v>98520</v>
@@ -5492,10 +5465,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>668743.8304771839</v>
+        <v>668781.7448630402</v>
       </c>
       <c r="R44" t="n">
-        <v>6707098.304903514</v>
+        <v>6706847.673392229</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5564,7 +5537,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>108415225</v>
+        <v>108415233</v>
       </c>
       <c r="B45" t="n">
         <v>98520</v>
@@ -5604,10 +5577,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>668895.4058025962</v>
+        <v>668634.4202110715</v>
       </c>
       <c r="R45" t="n">
-        <v>6707200.21030054</v>
+        <v>6706824.008292708</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5676,7 +5649,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>108415234</v>
+        <v>108415231</v>
       </c>
       <c r="B46" t="n">
         <v>98520</v>
@@ -5716,10 +5689,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>668734.7067607481</v>
+        <v>668646.7359922698</v>
       </c>
       <c r="R46" t="n">
-        <v>6706848.442735896</v>
+        <v>6706931.274624173</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5788,7 +5761,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>108409874</v>
+        <v>108409887</v>
       </c>
       <c r="B47" t="n">
         <v>98520</v>
@@ -5828,10 +5801,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>669146.5207695477</v>
+        <v>668852.3916819571</v>
       </c>
       <c r="R47" t="n">
-        <v>6706728.377273248</v>
+        <v>6706807.502231545</v>
       </c>
       <c r="S47" t="n">
         <v>15</v>
@@ -5900,10 +5873,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>108415218</v>
+        <v>108409804</v>
       </c>
       <c r="B48" t="n">
-        <v>98520</v>
+        <v>101680</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5916,37 +5889,37 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>222498</v>
+        <v>222412</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
-          <t>..., Upl</t>
+          <t>Skaten, Upl</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>669187.7705910555</v>
+        <v>668597.5072228918</v>
       </c>
       <c r="R48" t="n">
-        <v>6706618.666509801</v>
+        <v>6706883.537294785</v>
       </c>
       <c r="S48" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
@@ -6000,19 +5973,19 @@
       <c r="AT48" t="inlineStr"/>
       <c r="AW48" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Isac Carlsson</t>
         </is>
       </c>
       <c r="AX48" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Isac Carlsson</t>
         </is>
       </c>
       <c r="AY48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>108409884</v>
+        <v>108409881</v>
       </c>
       <c r="B49" t="n">
         <v>98520</v>
@@ -6052,10 +6025,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>668624.43209976</v>
+        <v>668599.4360019068</v>
       </c>
       <c r="R49" t="n">
-        <v>6706804.772460494</v>
+        <v>6706884.615077429</v>
       </c>
       <c r="S49" t="n">
         <v>15</v>
@@ -6124,10 +6097,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>108409883</v>
+        <v>108409823</v>
       </c>
       <c r="B50" t="n">
-        <v>98520</v>
+        <v>95519</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6140,21 +6113,21 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>222498</v>
+        <v>221945</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6164,10 +6137,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>668592.5375779402</v>
+        <v>668573.2027896161</v>
       </c>
       <c r="R50" t="n">
-        <v>6706788.467230922</v>
+        <v>6706821.155092762</v>
       </c>
       <c r="S50" t="n">
         <v>15</v>
@@ -6236,7 +6209,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>108409877</v>
+        <v>108424277</v>
       </c>
       <c r="B51" t="n">
         <v>98520</v>
@@ -6276,10 +6249,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>668740.3032878102</v>
+        <v>668927.1488798333</v>
       </c>
       <c r="R51" t="n">
-        <v>6707142.098699843</v>
+        <v>6707092.537888038</v>
       </c>
       <c r="S51" t="n">
         <v>15</v>
@@ -6336,22 +6309,22 @@
       <c r="AT51" t="inlineStr"/>
       <c r="AW51" t="inlineStr">
         <is>
-          <t>Isac Carlsson</t>
+          <t>Ivar Anderberg</t>
         </is>
       </c>
       <c r="AX51" t="inlineStr">
         <is>
-          <t>Isac Carlsson</t>
+          <t>Ivar Anderberg</t>
         </is>
       </c>
       <c r="AY51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>108409879</v>
+        <v>104490169</v>
       </c>
       <c r="B52" t="n">
-        <v>98520</v>
+        <v>90319</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6364,37 +6337,46 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr"/>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Skaten, Upl</t>
+          <t>Slåtaren, Upl</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>668730.8662629569</v>
+        <v>669088.8594992356</v>
       </c>
       <c r="R52" t="n">
-        <v>6706951.991754219</v>
+        <v>6707104.538948067</v>
       </c>
       <c r="S52" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
@@ -6418,7 +6400,7 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>2023-04-23</t>
+          <t>2022-10-05</t>
         </is>
       </c>
       <c r="Z52" t="inlineStr">
@@ -6428,7 +6410,7 @@
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>2023-04-23</t>
+          <t>2022-10-05</t>
         </is>
       </c>
       <c r="AB52" t="inlineStr">
@@ -6448,22 +6430,22 @@
       <c r="AT52" t="inlineStr"/>
       <c r="AW52" t="inlineStr">
         <is>
-          <t>Isac Carlsson</t>
+          <t>Patrick Fritzson</t>
         </is>
       </c>
       <c r="AX52" t="inlineStr">
         <is>
-          <t>Isac Carlsson</t>
+          <t>Patrick Fritzson</t>
         </is>
       </c>
       <c r="AY52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>108409885</v>
+        <v>104490222</v>
       </c>
       <c r="B53" t="n">
-        <v>98520</v>
+        <v>85177</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6472,41 +6454,50 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>222498</v>
+        <v>445</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Kopparspindling</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Cortinarius cupreorufus</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr"/>
+          <t>Brandrud</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Skaten, Upl</t>
+          <t>Slåtaren, Upl</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>668657.0282945582</v>
+        <v>668961.2052849672</v>
       </c>
       <c r="R53" t="n">
-        <v>6706774.184786156</v>
+        <v>6707231.929817245</v>
       </c>
       <c r="S53" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T53" t="inlineStr">
         <is>
@@ -6530,7 +6521,7 @@
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>2023-04-23</t>
+          <t>2022-10-05</t>
         </is>
       </c>
       <c r="Z53" t="inlineStr">
@@ -6540,7 +6531,7 @@
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>2023-04-23</t>
+          <t>2022-10-05</t>
         </is>
       </c>
       <c r="AB53" t="inlineStr">
@@ -6560,22 +6551,22 @@
       <c r="AT53" t="inlineStr"/>
       <c r="AW53" t="inlineStr">
         <is>
-          <t>Isac Carlsson</t>
+          <t>Patrick Fritzson</t>
         </is>
       </c>
       <c r="AX53" t="inlineStr">
         <is>
-          <t>Isac Carlsson</t>
+          <t>Patrick Fritzson</t>
         </is>
       </c>
       <c r="AY53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>108415224</v>
+        <v>104490140</v>
       </c>
       <c r="B54" t="n">
-        <v>98520</v>
+        <v>85077</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6588,34 +6579,43 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>222498</v>
+        <v>3762</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Olivspindling</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Cortinarius venetus</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr"/>
+          <t>(Fr.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>..., Upl</t>
+          <t>Slåtaren, Upl</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>668978.7494433899</v>
+        <v>669111.1003404789</v>
       </c>
       <c r="R54" t="n">
-        <v>6707121.125797677</v>
+        <v>6707083.846091949</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6642,7 +6642,7 @@
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>2023-04-23</t>
+          <t>2022-10-05</t>
         </is>
       </c>
       <c r="Z54" t="inlineStr">
@@ -6652,7 +6652,7 @@
       </c>
       <c r="AA54" t="inlineStr">
         <is>
-          <t>2023-04-23</t>
+          <t>2022-10-05</t>
         </is>
       </c>
       <c r="AB54" t="inlineStr">
@@ -6672,22 +6672,22 @@
       <c r="AT54" t="inlineStr"/>
       <c r="AW54" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Patrick Fritzson</t>
         </is>
       </c>
       <c r="AX54" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Patrick Fritzson</t>
         </is>
       </c>
       <c r="AY54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>108409822</v>
+        <v>108415223</v>
       </c>
       <c r="B55" t="n">
-        <v>95519</v>
+        <v>98520</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6700,37 +6700,37 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>221945</v>
+        <v>222498</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Skaten, Upl</t>
+          <t>..., Upl</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>669001.8055462213</v>
+        <v>669155.8938691856</v>
       </c>
       <c r="R55" t="n">
-        <v>6707093.55563919</v>
+        <v>6706771.296968295</v>
       </c>
       <c r="S55" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T55" t="inlineStr">
         <is>
@@ -6784,19 +6784,19 @@
       <c r="AT55" t="inlineStr"/>
       <c r="AW55" t="inlineStr">
         <is>
-          <t>Isac Carlsson</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX55" t="inlineStr">
         <is>
-          <t>Isac Carlsson</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>108409873</v>
+        <v>108409875</v>
       </c>
       <c r="B56" t="n">
         <v>98520</v>
@@ -6836,10 +6836,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>669105.3031643924</v>
+        <v>668896.3217661468</v>
       </c>
       <c r="R56" t="n">
-        <v>6706721.016635836</v>
+        <v>6707222.972649102</v>
       </c>
       <c r="S56" t="n">
         <v>15</v>
@@ -6908,7 +6908,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>108409876</v>
+        <v>108409870</v>
       </c>
       <c r="B57" t="n">
         <v>98520</v>
@@ -6948,10 +6948,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>668806.037766132</v>
+        <v>669294.3444126673</v>
       </c>
       <c r="R57" t="n">
-        <v>6707154.056261476</v>
+        <v>6706625.134030623</v>
       </c>
       <c r="S57" t="n">
         <v>15</v>
@@ -7020,7 +7020,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>108415235</v>
+        <v>108415220</v>
       </c>
       <c r="B58" t="n">
         <v>98520</v>
@@ -7060,10 +7060,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>668781.7448630402</v>
+        <v>669171.7761687116</v>
       </c>
       <c r="R58" t="n">
-        <v>6706847.673392229</v>
+        <v>6706685.594325458</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -7132,10 +7132,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>108415233</v>
+        <v>108409807</v>
       </c>
       <c r="B59" t="n">
-        <v>98520</v>
+        <v>56540</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7144,41 +7144,41 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>222498</v>
+        <v>103021</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
-          <t>..., Upl</t>
+          <t>Skaten, Upl</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>668634.4202110715</v>
+        <v>669084.0876556924</v>
       </c>
       <c r="R59" t="n">
-        <v>6706824.008292708</v>
+        <v>6707005.530315585</v>
       </c>
       <c r="S59" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T59" t="inlineStr">
         <is>
@@ -7232,19 +7232,19 @@
       <c r="AT59" t="inlineStr"/>
       <c r="AW59" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Isac Carlsson</t>
         </is>
       </c>
       <c r="AX59" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Isac Carlsson</t>
         </is>
       </c>
       <c r="AY59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>108415231</v>
+        <v>108409868</v>
       </c>
       <c r="B60" t="n">
         <v>98520</v>
@@ -7280,17 +7280,17 @@
       <c r="I60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
-          <t>..., Upl</t>
+          <t>Skaten, Upl</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>668646.7359922698</v>
+        <v>669113.653610889</v>
       </c>
       <c r="R60" t="n">
-        <v>6706931.274624173</v>
+        <v>6706627.056839946</v>
       </c>
       <c r="S60" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T60" t="inlineStr">
         <is>
@@ -7344,19 +7344,19 @@
       <c r="AT60" t="inlineStr"/>
       <c r="AW60" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Isac Carlsson</t>
         </is>
       </c>
       <c r="AX60" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Isac Carlsson</t>
         </is>
       </c>
       <c r="AY60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>108415221</v>
+        <v>108415219</v>
       </c>
       <c r="B61" t="n">
         <v>98520</v>
@@ -7396,10 +7396,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>669149.2258923159</v>
+        <v>669192.0450890273</v>
       </c>
       <c r="R61" t="n">
-        <v>6706755.17819867</v>
+        <v>6706664.807048702</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7468,10 +7468,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>108409887</v>
+        <v>108409806</v>
       </c>
       <c r="B62" t="n">
-        <v>98520</v>
+        <v>56540</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7480,25 +7480,25 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>222498</v>
+        <v>103021</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -7508,10 +7508,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>668852.3916819571</v>
+        <v>669083.0542504245</v>
       </c>
       <c r="R62" t="n">
-        <v>6706807.502231545</v>
+        <v>6707006.469879689</v>
       </c>
       <c r="S62" t="n">
         <v>15</v>
@@ -7580,10 +7580,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>108409804</v>
+        <v>108409874</v>
       </c>
       <c r="B63" t="n">
-        <v>101680</v>
+        <v>98520</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7596,21 +7596,21 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>222412</v>
+        <v>222498</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -7620,10 +7620,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>668597.5072228918</v>
+        <v>669146.5207695477</v>
       </c>
       <c r="R63" t="n">
-        <v>6706883.537294785</v>
+        <v>6706728.377273248</v>
       </c>
       <c r="S63" t="n">
         <v>15</v>
@@ -7692,7 +7692,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>108409881</v>
+        <v>108415218</v>
       </c>
       <c r="B64" t="n">
         <v>98520</v>
@@ -7728,17 +7728,17 @@
       <c r="I64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
-          <t>Skaten, Upl</t>
+          <t>..., Upl</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>668599.4360019068</v>
+        <v>669187.7705910555</v>
       </c>
       <c r="R64" t="n">
-        <v>6706884.615077429</v>
+        <v>6706618.666509801</v>
       </c>
       <c r="S64" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T64" t="inlineStr">
         <is>
@@ -7792,22 +7792,22 @@
       <c r="AT64" t="inlineStr"/>
       <c r="AW64" t="inlineStr">
         <is>
-          <t>Isac Carlsson</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX64" t="inlineStr">
         <is>
-          <t>Isac Carlsson</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>108409823</v>
+        <v>108409873</v>
       </c>
       <c r="B65" t="n">
-        <v>95519</v>
+        <v>98520</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -7820,21 +7820,21 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>221945</v>
+        <v>222498</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -7844,10 +7844,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>668573.2027896161</v>
+        <v>669105.3031643924</v>
       </c>
       <c r="R65" t="n">
-        <v>6706821.155092762</v>
+        <v>6706721.016635836</v>
       </c>
       <c r="S65" t="n">
         <v>15</v>
@@ -7916,7 +7916,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>108409872</v>
+        <v>108415221</v>
       </c>
       <c r="B66" t="n">
         <v>98520</v>
@@ -7952,17 +7952,17 @@
       <c r="I66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
-          <t>Skaten, Upl</t>
+          <t>..., Upl</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>669214.0085058747</v>
+        <v>669149.2258923159</v>
       </c>
       <c r="R66" t="n">
-        <v>6706671.268091884</v>
+        <v>6706755.17819867</v>
       </c>
       <c r="S66" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T66" t="inlineStr">
         <is>
@@ -8016,19 +8016,19 @@
       <c r="AT66" t="inlineStr"/>
       <c r="AW66" t="inlineStr">
         <is>
-          <t>Isac Carlsson</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX66" t="inlineStr">
         <is>
-          <t>Isac Carlsson</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>108415222</v>
+        <v>108409872</v>
       </c>
       <c r="B67" t="n">
         <v>98520</v>
@@ -8064,17 +8064,17 @@
       <c r="I67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
-          <t>..., Upl</t>
+          <t>Skaten, Upl</t>
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>669188.4297797906</v>
+        <v>669214.0085058747</v>
       </c>
       <c r="R67" t="n">
-        <v>6706720.951508832</v>
+        <v>6706671.268091884</v>
       </c>
       <c r="S67" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T67" t="inlineStr">
         <is>
@@ -8128,19 +8128,19 @@
       <c r="AT67" t="inlineStr"/>
       <c r="AW67" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Isac Carlsson</t>
         </is>
       </c>
       <c r="AX67" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Isac Carlsson</t>
         </is>
       </c>
       <c r="AY67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>108424289</v>
+        <v>108415222</v>
       </c>
       <c r="B68" t="n">
         <v>98520</v>
@@ -8176,17 +8176,17 @@
       <c r="I68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Skaten, Upl</t>
+          <t>..., Upl</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>669189.2309073759</v>
+        <v>669188.4297797906</v>
       </c>
       <c r="R68" t="n">
-        <v>6706799.036126756</v>
+        <v>6706720.951508832</v>
       </c>
       <c r="S68" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T68" t="inlineStr">
         <is>
@@ -8240,19 +8240,19 @@
       <c r="AT68" t="inlineStr"/>
       <c r="AW68" t="inlineStr">
         <is>
-          <t>Ivar Anderberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX68" t="inlineStr">
         <is>
-          <t>Ivar Anderberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>108424291</v>
+        <v>108424289</v>
       </c>
       <c r="B69" t="n">
         <v>98520</v>
@@ -8292,10 +8292,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>669174.1858528391</v>
+        <v>669189.2309073759</v>
       </c>
       <c r="R69" t="n">
-        <v>6706824.512508922</v>
+        <v>6706799.036126756</v>
       </c>
       <c r="S69" t="n">
         <v>15</v>
@@ -8364,7 +8364,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>108424277</v>
+        <v>108424291</v>
       </c>
       <c r="B70" t="n">
         <v>98520</v>
@@ -8404,10 +8404,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>668927.1488798333</v>
+        <v>669174.1858528391</v>
       </c>
       <c r="R70" t="n">
-        <v>6707092.537888038</v>
+        <v>6706824.512508922</v>
       </c>
       <c r="S70" t="n">
         <v>15</v>

--- a/artfynd/A 7208-2023.xlsx
+++ b/artfynd/A 7208-2023.xlsx
@@ -3055,10 +3055,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>104481264</v>
+        <v>104490169</v>
       </c>
       <c r="B23" t="n">
-        <v>85077</v>
+        <v>90319</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3071,26 +3071,26 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>3762</v>
+        <v>4769</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Olivspindling</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Cortinarius venetus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Fr.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>15</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -3104,10 +3104,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>668719.4915250128</v>
+        <v>669088.8594992356</v>
       </c>
       <c r="R23" t="n">
-        <v>6707110.999191185</v>
+        <v>6707104.538948067</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3134,7 +3134,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2022-09-29</t>
+          <t>2022-10-05</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
@@ -3144,7 +3144,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2022-09-29</t>
+          <t>2022-10-05</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
@@ -3176,10 +3176,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>108415232</v>
+        <v>104481264</v>
       </c>
       <c r="B24" t="n">
-        <v>98520</v>
+        <v>85077</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3192,34 +3192,43 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>222498</v>
+        <v>3762</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Olivspindling</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Cortinarius venetus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr"/>
+          <t>(Fr.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>..., Upl</t>
+          <t>Slåtaren, Upl</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>668590.6649670057</v>
+        <v>668719.4915250128</v>
       </c>
       <c r="R24" t="n">
-        <v>6706860.496918534</v>
+        <v>6707110.999191185</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3246,7 +3255,7 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2023-04-23</t>
+          <t>2022-09-29</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
@@ -3256,7 +3265,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2023-04-23</t>
+          <t>2022-09-29</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
@@ -3276,22 +3285,22 @@
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Patrick Fritzson</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Patrick Fritzson</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>108409878</v>
+        <v>104490222</v>
       </c>
       <c r="B25" t="n">
-        <v>98520</v>
+        <v>85177</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3300,41 +3309,50 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>222498</v>
+        <v>445</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Kopparspindling</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Cortinarius cupreorufus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr"/>
+          <t>Brandrud</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Skaten, Upl</t>
+          <t>Slåtaren, Upl</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>668732.2419844726</v>
+        <v>668961.2052849672</v>
       </c>
       <c r="R25" t="n">
-        <v>6706986.137389799</v>
+        <v>6707231.929817245</v>
       </c>
       <c r="S25" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3358,7 +3376,7 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2023-04-23</t>
+          <t>2022-10-05</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
@@ -3368,7 +3386,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2023-04-23</t>
+          <t>2022-10-05</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
@@ -3388,22 +3406,22 @@
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Isac Carlsson</t>
+          <t>Patrick Fritzson</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Isac Carlsson</t>
+          <t>Patrick Fritzson</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>108409882</v>
+        <v>104490140</v>
       </c>
       <c r="B26" t="n">
-        <v>98520</v>
+        <v>85077</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3416,37 +3434,46 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>222498</v>
+        <v>3762</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Olivspindling</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Cortinarius venetus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr"/>
+          <t>(Fr.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Skaten, Upl</t>
+          <t>Slåtaren, Upl</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>668573.466799319</v>
+        <v>669111.1003404789</v>
       </c>
       <c r="R26" t="n">
-        <v>6706826.106911643</v>
+        <v>6707083.846091949</v>
       </c>
       <c r="S26" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3470,7 +3497,7 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2023-04-23</t>
+          <t>2022-10-05</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
@@ -3480,7 +3507,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2023-04-23</t>
+          <t>2022-10-05</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
@@ -3500,19 +3527,19 @@
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Isac Carlsson</t>
+          <t>Patrick Fritzson</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Isac Carlsson</t>
+          <t>Patrick Fritzson</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>108409886</v>
+        <v>108415223</v>
       </c>
       <c r="B27" t="n">
         <v>98520</v>
@@ -3548,17 +3575,17 @@
       <c r="I27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Skaten, Upl</t>
+          <t>..., Upl</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>668662.3892558606</v>
+        <v>669155.8938691856</v>
       </c>
       <c r="R27" t="n">
-        <v>6706797.156796834</v>
+        <v>6706771.296968295</v>
       </c>
       <c r="S27" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3612,19 +3639,19 @@
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Isac Carlsson</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Isac Carlsson</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>108409880</v>
+        <v>108415232</v>
       </c>
       <c r="B28" t="n">
         <v>98520</v>
@@ -3660,17 +3687,17 @@
       <c r="I28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Skaten, Upl</t>
+          <t>..., Upl</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>668701.2030766071</v>
+        <v>668590.6649670057</v>
       </c>
       <c r="R28" t="n">
-        <v>6706887.877786493</v>
+        <v>6706860.496918534</v>
       </c>
       <c r="S28" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3724,19 +3751,19 @@
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>Isac Carlsson</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Isac Carlsson</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>108415228</v>
+        <v>108409878</v>
       </c>
       <c r="B29" t="n">
         <v>98520</v>
@@ -3772,17 +3799,17 @@
       <c r="I29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>..., Upl</t>
+          <t>Skaten, Upl</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>668809.8771232736</v>
+        <v>668732.2419844726</v>
       </c>
       <c r="R29" t="n">
-        <v>6707092.990044762</v>
+        <v>6706986.137389799</v>
       </c>
       <c r="S29" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -3836,19 +3863,19 @@
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Isac Carlsson</t>
         </is>
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Isac Carlsson</t>
         </is>
       </c>
       <c r="AY29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>108415227</v>
+        <v>108409875</v>
       </c>
       <c r="B30" t="n">
         <v>98520</v>
@@ -3884,17 +3911,17 @@
       <c r="I30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>..., Upl</t>
+          <t>Skaten, Upl</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>668805.5245496323</v>
+        <v>668896.3217661468</v>
       </c>
       <c r="R30" t="n">
-        <v>6707112.049691288</v>
+        <v>6707222.972649102</v>
       </c>
       <c r="S30" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -3948,22 +3975,22 @@
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Isac Carlsson</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Isac Carlsson</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>108409826</v>
+        <v>108409870</v>
       </c>
       <c r="B31" t="n">
-        <v>90676</v>
+        <v>98520</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3972,41 +3999,38 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>5966</v>
+        <v>222498</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
           <t>Skaten, Upl</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>668867.2956288499</v>
+        <v>669294.3444126673</v>
       </c>
       <c r="R31" t="n">
-        <v>6707155.927813337</v>
+        <v>6706625.134030623</v>
       </c>
       <c r="S31" t="n">
         <v>15</v>
@@ -4051,18 +4075,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC31" t="inlineStr">
-        <is>
-          <t>Gammal fruktkropp</t>
-        </is>
-      </c>
       <c r="AD31" t="b">
         <v>0</v>
       </c>
       <c r="AE31" t="b">
         <v>0</v>
       </c>
-      <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="b">
         <v>0</v>
       </c>
@@ -4081,7 +4099,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>108415230</v>
+        <v>108409882</v>
       </c>
       <c r="B32" t="n">
         <v>98520</v>
@@ -4117,17 +4135,17 @@
       <c r="I32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>..., Upl</t>
+          <t>Skaten, Upl</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>668668.8559736249</v>
+        <v>668573.466799319</v>
       </c>
       <c r="R32" t="n">
-        <v>6707019.238064316</v>
+        <v>6706826.106911643</v>
       </c>
       <c r="S32" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -4181,19 +4199,19 @@
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Isac Carlsson</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Isac Carlsson</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>108415229</v>
+        <v>108415220</v>
       </c>
       <c r="B33" t="n">
         <v>98520</v>
@@ -4233,10 +4251,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>668743.8304771839</v>
+        <v>669171.7761687116</v>
       </c>
       <c r="R33" t="n">
-        <v>6707098.304903514</v>
+        <v>6706685.594325458</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4305,7 +4323,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>108415225</v>
+        <v>108409886</v>
       </c>
       <c r="B34" t="n">
         <v>98520</v>
@@ -4341,17 +4359,17 @@
       <c r="I34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>..., Upl</t>
+          <t>Skaten, Upl</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>668895.4058025962</v>
+        <v>668662.3892558606</v>
       </c>
       <c r="R34" t="n">
-        <v>6707200.21030054</v>
+        <v>6706797.156796834</v>
       </c>
       <c r="S34" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -4405,19 +4423,19 @@
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Isac Carlsson</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Isac Carlsson</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>108415234</v>
+        <v>108409880</v>
       </c>
       <c r="B35" t="n">
         <v>98520</v>
@@ -4453,17 +4471,17 @@
       <c r="I35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>..., Upl</t>
+          <t>Skaten, Upl</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>668734.7067607481</v>
+        <v>668701.2030766071</v>
       </c>
       <c r="R35" t="n">
-        <v>6706848.442735896</v>
+        <v>6706887.877786493</v>
       </c>
       <c r="S35" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -4517,22 +4535,22 @@
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Isac Carlsson</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Isac Carlsson</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>108409884</v>
+        <v>108409807</v>
       </c>
       <c r="B36" t="n">
-        <v>98520</v>
+        <v>56540</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4541,25 +4559,25 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>222498</v>
+        <v>103021</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4569,10 +4587,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>668624.43209976</v>
+        <v>669084.0876556924</v>
       </c>
       <c r="R36" t="n">
-        <v>6706804.772460494</v>
+        <v>6707005.530315585</v>
       </c>
       <c r="S36" t="n">
         <v>15</v>
@@ -4641,7 +4659,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>108409883</v>
+        <v>108409868</v>
       </c>
       <c r="B37" t="n">
         <v>98520</v>
@@ -4681,10 +4699,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>668592.5375779402</v>
+        <v>669113.653610889</v>
       </c>
       <c r="R37" t="n">
-        <v>6706788.467230922</v>
+        <v>6706627.056839946</v>
       </c>
       <c r="S37" t="n">
         <v>15</v>
@@ -4753,7 +4771,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>108409877</v>
+        <v>108415219</v>
       </c>
       <c r="B38" t="n">
         <v>98520</v>
@@ -4789,17 +4807,17 @@
       <c r="I38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Skaten, Upl</t>
+          <t>..., Upl</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>668740.3032878102</v>
+        <v>669192.0450890273</v>
       </c>
       <c r="R38" t="n">
-        <v>6707142.098699843</v>
+        <v>6706664.807048702</v>
       </c>
       <c r="S38" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -4853,19 +4871,19 @@
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
         <is>
-          <t>Isac Carlsson</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Isac Carlsson</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>108409879</v>
+        <v>108415228</v>
       </c>
       <c r="B39" t="n">
         <v>98520</v>
@@ -4901,17 +4919,17 @@
       <c r="I39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Skaten, Upl</t>
+          <t>..., Upl</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>668730.8662629569</v>
+        <v>668809.8771232736</v>
       </c>
       <c r="R39" t="n">
-        <v>6706951.991754219</v>
+        <v>6707092.990044762</v>
       </c>
       <c r="S39" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -4965,19 +4983,19 @@
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
         <is>
-          <t>Isac Carlsson</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Isac Carlsson</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>108409885</v>
+        <v>108415227</v>
       </c>
       <c r="B40" t="n">
         <v>98520</v>
@@ -5013,17 +5031,17 @@
       <c r="I40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Skaten, Upl</t>
+          <t>..., Upl</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>668657.0282945582</v>
+        <v>668805.5245496323</v>
       </c>
       <c r="R40" t="n">
-        <v>6706774.184786156</v>
+        <v>6707112.049691288</v>
       </c>
       <c r="S40" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
@@ -5077,22 +5095,22 @@
       <c r="AT40" t="inlineStr"/>
       <c r="AW40" t="inlineStr">
         <is>
-          <t>Isac Carlsson</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX40" t="inlineStr">
         <is>
-          <t>Isac Carlsson</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>108415224</v>
+        <v>108409806</v>
       </c>
       <c r="B41" t="n">
-        <v>98520</v>
+        <v>56540</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5101,41 +5119,41 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>222498</v>
+        <v>103021</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
-          <t>..., Upl</t>
+          <t>Skaten, Upl</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>668978.7494433899</v>
+        <v>669083.0542504245</v>
       </c>
       <c r="R41" t="n">
-        <v>6707121.125797677</v>
+        <v>6707006.469879689</v>
       </c>
       <c r="S41" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
@@ -5189,22 +5207,22 @@
       <c r="AT41" t="inlineStr"/>
       <c r="AW41" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Isac Carlsson</t>
         </is>
       </c>
       <c r="AX41" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Isac Carlsson</t>
         </is>
       </c>
       <c r="AY41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>108409822</v>
+        <v>108409826</v>
       </c>
       <c r="B42" t="n">
-        <v>95519</v>
+        <v>90676</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5213,38 +5231,41 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>221945</v>
+        <v>5966</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
           <t>Skaten, Upl</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>669001.8055462213</v>
+        <v>668867.2956288499</v>
       </c>
       <c r="R42" t="n">
-        <v>6707093.55563919</v>
+        <v>6707155.927813337</v>
       </c>
       <c r="S42" t="n">
         <v>15</v>
@@ -5289,12 +5310,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC42" t="inlineStr">
+        <is>
+          <t>Gammal fruktkropp</t>
+        </is>
+      </c>
       <c r="AD42" t="b">
         <v>0</v>
       </c>
       <c r="AE42" t="b">
         <v>0</v>
       </c>
+      <c r="AF42" t="inlineStr"/>
       <c r="AG42" t="b">
         <v>0</v>
       </c>
@@ -5313,7 +5340,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>108409876</v>
+        <v>108415230</v>
       </c>
       <c r="B43" t="n">
         <v>98520</v>
@@ -5349,17 +5376,17 @@
       <c r="I43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Skaten, Upl</t>
+          <t>..., Upl</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>668806.037766132</v>
+        <v>668668.8559736249</v>
       </c>
       <c r="R43" t="n">
-        <v>6707154.056261476</v>
+        <v>6707019.238064316</v>
       </c>
       <c r="S43" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
@@ -5413,19 +5440,19 @@
       <c r="AT43" t="inlineStr"/>
       <c r="AW43" t="inlineStr">
         <is>
-          <t>Isac Carlsson</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX43" t="inlineStr">
         <is>
-          <t>Isac Carlsson</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>108415235</v>
+        <v>108415229</v>
       </c>
       <c r="B44" t="n">
         <v>98520</v>
@@ -5465,10 +5492,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>668781.7448630402</v>
+        <v>668743.8304771839</v>
       </c>
       <c r="R44" t="n">
-        <v>6706847.673392229</v>
+        <v>6707098.304903514</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5537,7 +5564,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>108415233</v>
+        <v>108415225</v>
       </c>
       <c r="B45" t="n">
         <v>98520</v>
@@ -5577,10 +5604,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>668634.4202110715</v>
+        <v>668895.4058025962</v>
       </c>
       <c r="R45" t="n">
-        <v>6706824.008292708</v>
+        <v>6707200.21030054</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5649,7 +5676,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>108415231</v>
+        <v>108415234</v>
       </c>
       <c r="B46" t="n">
         <v>98520</v>
@@ -5689,10 +5716,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>668646.7359922698</v>
+        <v>668734.7067607481</v>
       </c>
       <c r="R46" t="n">
-        <v>6706931.274624173</v>
+        <v>6706848.442735896</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5761,7 +5788,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>108409887</v>
+        <v>108409874</v>
       </c>
       <c r="B47" t="n">
         <v>98520</v>
@@ -5801,10 +5828,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>668852.3916819571</v>
+        <v>669146.5207695477</v>
       </c>
       <c r="R47" t="n">
-        <v>6706807.502231545</v>
+        <v>6706728.377273248</v>
       </c>
       <c r="S47" t="n">
         <v>15</v>
@@ -5873,10 +5900,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>108409804</v>
+        <v>108415218</v>
       </c>
       <c r="B48" t="n">
-        <v>101680</v>
+        <v>98520</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5889,37 +5916,37 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>222412</v>
+        <v>222498</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Skaten, Upl</t>
+          <t>..., Upl</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>668597.5072228918</v>
+        <v>669187.7705910555</v>
       </c>
       <c r="R48" t="n">
-        <v>6706883.537294785</v>
+        <v>6706618.666509801</v>
       </c>
       <c r="S48" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
@@ -5973,19 +6000,19 @@
       <c r="AT48" t="inlineStr"/>
       <c r="AW48" t="inlineStr">
         <is>
-          <t>Isac Carlsson</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX48" t="inlineStr">
         <is>
-          <t>Isac Carlsson</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>108409881</v>
+        <v>108409884</v>
       </c>
       <c r="B49" t="n">
         <v>98520</v>
@@ -6025,10 +6052,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>668599.4360019068</v>
+        <v>668624.43209976</v>
       </c>
       <c r="R49" t="n">
-        <v>6706884.615077429</v>
+        <v>6706804.772460494</v>
       </c>
       <c r="S49" t="n">
         <v>15</v>
@@ -6097,10 +6124,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>108409823</v>
+        <v>108409883</v>
       </c>
       <c r="B50" t="n">
-        <v>95519</v>
+        <v>98520</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6113,21 +6140,21 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>221945</v>
+        <v>222498</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6137,10 +6164,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>668573.2027896161</v>
+        <v>668592.5375779402</v>
       </c>
       <c r="R50" t="n">
-        <v>6706821.155092762</v>
+        <v>6706788.467230922</v>
       </c>
       <c r="S50" t="n">
         <v>15</v>
@@ -6209,7 +6236,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>108424277</v>
+        <v>108409877</v>
       </c>
       <c r="B51" t="n">
         <v>98520</v>
@@ -6249,10 +6276,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>668927.1488798333</v>
+        <v>668740.3032878102</v>
       </c>
       <c r="R51" t="n">
-        <v>6707092.537888038</v>
+        <v>6707142.098699843</v>
       </c>
       <c r="S51" t="n">
         <v>15</v>
@@ -6309,22 +6336,22 @@
       <c r="AT51" t="inlineStr"/>
       <c r="AW51" t="inlineStr">
         <is>
-          <t>Ivar Anderberg</t>
+          <t>Isac Carlsson</t>
         </is>
       </c>
       <c r="AX51" t="inlineStr">
         <is>
-          <t>Ivar Anderberg</t>
+          <t>Isac Carlsson</t>
         </is>
       </c>
       <c r="AY51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>104490169</v>
+        <v>108409879</v>
       </c>
       <c r="B52" t="n">
-        <v>90319</v>
+        <v>98520</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6337,46 +6364,37 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>4769</v>
+        <v>222498</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Slåtaren, Upl</t>
+          <t>Skaten, Upl</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>669088.8594992356</v>
+        <v>668730.8662629569</v>
       </c>
       <c r="R52" t="n">
-        <v>6707104.538948067</v>
+        <v>6706951.991754219</v>
       </c>
       <c r="S52" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
@@ -6400,7 +6418,7 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>2022-10-05</t>
+          <t>2023-04-23</t>
         </is>
       </c>
       <c r="Z52" t="inlineStr">
@@ -6410,7 +6428,7 @@
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>2022-10-05</t>
+          <t>2023-04-23</t>
         </is>
       </c>
       <c r="AB52" t="inlineStr">
@@ -6430,22 +6448,22 @@
       <c r="AT52" t="inlineStr"/>
       <c r="AW52" t="inlineStr">
         <is>
-          <t>Patrick Fritzson</t>
+          <t>Isac Carlsson</t>
         </is>
       </c>
       <c r="AX52" t="inlineStr">
         <is>
-          <t>Patrick Fritzson</t>
+          <t>Isac Carlsson</t>
         </is>
       </c>
       <c r="AY52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>104490222</v>
+        <v>108409885</v>
       </c>
       <c r="B53" t="n">
-        <v>85177</v>
+        <v>98520</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6454,50 +6472,41 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>445</v>
+        <v>222498</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Kopparspindling</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Cortinarius cupreorufus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Brandrud</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Slåtaren, Upl</t>
+          <t>Skaten, Upl</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>668961.2052849672</v>
+        <v>668657.0282945582</v>
       </c>
       <c r="R53" t="n">
-        <v>6707231.929817245</v>
+        <v>6706774.184786156</v>
       </c>
       <c r="S53" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T53" t="inlineStr">
         <is>
@@ -6521,7 +6530,7 @@
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>2022-10-05</t>
+          <t>2023-04-23</t>
         </is>
       </c>
       <c r="Z53" t="inlineStr">
@@ -6531,7 +6540,7 @@
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>2022-10-05</t>
+          <t>2023-04-23</t>
         </is>
       </c>
       <c r="AB53" t="inlineStr">
@@ -6551,22 +6560,22 @@
       <c r="AT53" t="inlineStr"/>
       <c r="AW53" t="inlineStr">
         <is>
-          <t>Patrick Fritzson</t>
+          <t>Isac Carlsson</t>
         </is>
       </c>
       <c r="AX53" t="inlineStr">
         <is>
-          <t>Patrick Fritzson</t>
+          <t>Isac Carlsson</t>
         </is>
       </c>
       <c r="AY53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>104490140</v>
+        <v>108415224</v>
       </c>
       <c r="B54" t="n">
-        <v>85077</v>
+        <v>98520</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6579,43 +6588,34 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>3762</v>
+        <v>222498</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Olivspindling</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Cortinarius venetus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Fr.</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Slåtaren, Upl</t>
+          <t>..., Upl</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>669111.1003404789</v>
+        <v>668978.7494433899</v>
       </c>
       <c r="R54" t="n">
-        <v>6707083.846091949</v>
+        <v>6707121.125797677</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6642,7 +6642,7 @@
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>2022-10-05</t>
+          <t>2023-04-23</t>
         </is>
       </c>
       <c r="Z54" t="inlineStr">
@@ -6652,7 +6652,7 @@
       </c>
       <c r="AA54" t="inlineStr">
         <is>
-          <t>2022-10-05</t>
+          <t>2023-04-23</t>
         </is>
       </c>
       <c r="AB54" t="inlineStr">
@@ -6672,22 +6672,22 @@
       <c r="AT54" t="inlineStr"/>
       <c r="AW54" t="inlineStr">
         <is>
-          <t>Patrick Fritzson</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX54" t="inlineStr">
         <is>
-          <t>Patrick Fritzson</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>108415223</v>
+        <v>108409822</v>
       </c>
       <c r="B55" t="n">
-        <v>98520</v>
+        <v>95519</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6700,37 +6700,37 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>222498</v>
+        <v>221945</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
-          <t>..., Upl</t>
+          <t>Skaten, Upl</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>669155.8938691856</v>
+        <v>669001.8055462213</v>
       </c>
       <c r="R55" t="n">
-        <v>6706771.296968295</v>
+        <v>6707093.55563919</v>
       </c>
       <c r="S55" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T55" t="inlineStr">
         <is>
@@ -6784,19 +6784,19 @@
       <c r="AT55" t="inlineStr"/>
       <c r="AW55" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Isac Carlsson</t>
         </is>
       </c>
       <c r="AX55" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Isac Carlsson</t>
         </is>
       </c>
       <c r="AY55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>108409875</v>
+        <v>108409873</v>
       </c>
       <c r="B56" t="n">
         <v>98520</v>
@@ -6836,10 +6836,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>668896.3217661468</v>
+        <v>669105.3031643924</v>
       </c>
       <c r="R56" t="n">
-        <v>6707222.972649102</v>
+        <v>6706721.016635836</v>
       </c>
       <c r="S56" t="n">
         <v>15</v>
@@ -6908,7 +6908,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>108409870</v>
+        <v>108409876</v>
       </c>
       <c r="B57" t="n">
         <v>98520</v>
@@ -6948,10 +6948,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>669294.3444126673</v>
+        <v>668806.037766132</v>
       </c>
       <c r="R57" t="n">
-        <v>6706625.134030623</v>
+        <v>6707154.056261476</v>
       </c>
       <c r="S57" t="n">
         <v>15</v>
@@ -7020,7 +7020,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>108415220</v>
+        <v>108415235</v>
       </c>
       <c r="B58" t="n">
         <v>98520</v>
@@ -7060,10 +7060,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>669171.7761687116</v>
+        <v>668781.7448630402</v>
       </c>
       <c r="R58" t="n">
-        <v>6706685.594325458</v>
+        <v>6706847.673392229</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -7132,10 +7132,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>108409807</v>
+        <v>108415233</v>
       </c>
       <c r="B59" t="n">
-        <v>56540</v>
+        <v>98520</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7144,41 +7144,41 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>103021</v>
+        <v>222498</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
-          <t>Skaten, Upl</t>
+          <t>..., Upl</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>669084.0876556924</v>
+        <v>668634.4202110715</v>
       </c>
       <c r="R59" t="n">
-        <v>6707005.530315585</v>
+        <v>6706824.008292708</v>
       </c>
       <c r="S59" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T59" t="inlineStr">
         <is>
@@ -7232,19 +7232,19 @@
       <c r="AT59" t="inlineStr"/>
       <c r="AW59" t="inlineStr">
         <is>
-          <t>Isac Carlsson</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX59" t="inlineStr">
         <is>
-          <t>Isac Carlsson</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>108409868</v>
+        <v>108415231</v>
       </c>
       <c r="B60" t="n">
         <v>98520</v>
@@ -7280,17 +7280,17 @@
       <c r="I60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
-          <t>Skaten, Upl</t>
+          <t>..., Upl</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>669113.653610889</v>
+        <v>668646.7359922698</v>
       </c>
       <c r="R60" t="n">
-        <v>6706627.056839946</v>
+        <v>6706931.274624173</v>
       </c>
       <c r="S60" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T60" t="inlineStr">
         <is>
@@ -7344,19 +7344,19 @@
       <c r="AT60" t="inlineStr"/>
       <c r="AW60" t="inlineStr">
         <is>
-          <t>Isac Carlsson</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX60" t="inlineStr">
         <is>
-          <t>Isac Carlsson</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>108415219</v>
+        <v>108415221</v>
       </c>
       <c r="B61" t="n">
         <v>98520</v>
@@ -7396,10 +7396,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>669192.0450890273</v>
+        <v>669149.2258923159</v>
       </c>
       <c r="R61" t="n">
-        <v>6706664.807048702</v>
+        <v>6706755.17819867</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7468,10 +7468,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>108409806</v>
+        <v>108409887</v>
       </c>
       <c r="B62" t="n">
-        <v>56540</v>
+        <v>98520</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7480,25 +7480,25 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>103021</v>
+        <v>222498</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -7508,10 +7508,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>669083.0542504245</v>
+        <v>668852.3916819571</v>
       </c>
       <c r="R62" t="n">
-        <v>6707006.469879689</v>
+        <v>6706807.502231545</v>
       </c>
       <c r="S62" t="n">
         <v>15</v>
@@ -7580,10 +7580,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>108409874</v>
+        <v>108409804</v>
       </c>
       <c r="B63" t="n">
-        <v>98520</v>
+        <v>101680</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7596,21 +7596,21 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>222498</v>
+        <v>222412</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -7620,10 +7620,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>669146.5207695477</v>
+        <v>668597.5072228918</v>
       </c>
       <c r="R63" t="n">
-        <v>6706728.377273248</v>
+        <v>6706883.537294785</v>
       </c>
       <c r="S63" t="n">
         <v>15</v>
@@ -7692,7 +7692,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>108415218</v>
+        <v>108409881</v>
       </c>
       <c r="B64" t="n">
         <v>98520</v>
@@ -7728,17 +7728,17 @@
       <c r="I64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
-          <t>..., Upl</t>
+          <t>Skaten, Upl</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>669187.7705910555</v>
+        <v>668599.4360019068</v>
       </c>
       <c r="R64" t="n">
-        <v>6706618.666509801</v>
+        <v>6706884.615077429</v>
       </c>
       <c r="S64" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T64" t="inlineStr">
         <is>
@@ -7792,22 +7792,22 @@
       <c r="AT64" t="inlineStr"/>
       <c r="AW64" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Isac Carlsson</t>
         </is>
       </c>
       <c r="AX64" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Isac Carlsson</t>
         </is>
       </c>
       <c r="AY64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>108409873</v>
+        <v>108409823</v>
       </c>
       <c r="B65" t="n">
-        <v>98520</v>
+        <v>95519</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -7820,21 +7820,21 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>222498</v>
+        <v>221945</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -7844,10 +7844,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>669105.3031643924</v>
+        <v>668573.2027896161</v>
       </c>
       <c r="R65" t="n">
-        <v>6706721.016635836</v>
+        <v>6706821.155092762</v>
       </c>
       <c r="S65" t="n">
         <v>15</v>
@@ -7916,7 +7916,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>108415221</v>
+        <v>108409872</v>
       </c>
       <c r="B66" t="n">
         <v>98520</v>
@@ -7952,17 +7952,17 @@
       <c r="I66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
-          <t>..., Upl</t>
+          <t>Skaten, Upl</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>669149.2258923159</v>
+        <v>669214.0085058747</v>
       </c>
       <c r="R66" t="n">
-        <v>6706755.17819867</v>
+        <v>6706671.268091884</v>
       </c>
       <c r="S66" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T66" t="inlineStr">
         <is>
@@ -8016,19 +8016,19 @@
       <c r="AT66" t="inlineStr"/>
       <c r="AW66" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Isac Carlsson</t>
         </is>
       </c>
       <c r="AX66" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Isac Carlsson</t>
         </is>
       </c>
       <c r="AY66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>108409872</v>
+        <v>108415222</v>
       </c>
       <c r="B67" t="n">
         <v>98520</v>
@@ -8064,17 +8064,17 @@
       <c r="I67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Skaten, Upl</t>
+          <t>..., Upl</t>
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>669214.0085058747</v>
+        <v>669188.4297797906</v>
       </c>
       <c r="R67" t="n">
-        <v>6706671.268091884</v>
+        <v>6706720.951508832</v>
       </c>
       <c r="S67" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T67" t="inlineStr">
         <is>
@@ -8128,19 +8128,19 @@
       <c r="AT67" t="inlineStr"/>
       <c r="AW67" t="inlineStr">
         <is>
-          <t>Isac Carlsson</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX67" t="inlineStr">
         <is>
-          <t>Isac Carlsson</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>108415222</v>
+        <v>108424289</v>
       </c>
       <c r="B68" t="n">
         <v>98520</v>
@@ -8176,17 +8176,17 @@
       <c r="I68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
-          <t>..., Upl</t>
+          <t>Skaten, Upl</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>669188.4297797906</v>
+        <v>669189.2309073759</v>
       </c>
       <c r="R68" t="n">
-        <v>6706720.951508832</v>
+        <v>6706799.036126756</v>
       </c>
       <c r="S68" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T68" t="inlineStr">
         <is>
@@ -8240,19 +8240,19 @@
       <c r="AT68" t="inlineStr"/>
       <c r="AW68" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Ivar Anderberg</t>
         </is>
       </c>
       <c r="AX68" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Ivar Anderberg</t>
         </is>
       </c>
       <c r="AY68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>108424289</v>
+        <v>108424291</v>
       </c>
       <c r="B69" t="n">
         <v>98520</v>
@@ -8292,10 +8292,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>669189.2309073759</v>
+        <v>669174.1858528391</v>
       </c>
       <c r="R69" t="n">
-        <v>6706799.036126756</v>
+        <v>6706824.512508922</v>
       </c>
       <c r="S69" t="n">
         <v>15</v>
@@ -8364,7 +8364,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>108424291</v>
+        <v>108424277</v>
       </c>
       <c r="B70" t="n">
         <v>98520</v>
@@ -8404,10 +8404,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>669174.1858528391</v>
+        <v>668927.1488798333</v>
       </c>
       <c r="R70" t="n">
-        <v>6706824.512508922</v>
+        <v>6707092.537888038</v>
       </c>
       <c r="S70" t="n">
         <v>15</v>
